--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoangcongtuan/TH_LTM_FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2008242A-721E-4149-B2C0-AC4557048B16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DC63534-2F2F-6D48-ABBE-E18BBB6E6F17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="13940" activeTab="1" xr2:uid="{B530A624-9A21-8143-8C98-3A1F90A9B9F5}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:C19" si="0" xml:space="preserve"> "C" &amp; (ROW() - 1 + 200)</f>
+        <f t="shared" ref="B3:C8" si="0" xml:space="preserve"> "C" &amp; (ROW() - 1 + 200)</f>
         <v>C202</v>
       </c>
       <c r="C3" t="str">
